--- a/7rmart/src/test/resources/TestData.xlsx
+++ b/7rmart/src/test/resources/TestData.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBF1C44-31D7-4DE3-ABBB-59961EBAF2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B9A240A2-6394-4A1E-8446-9764666E7B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" firstSheet="2" activeTab="7" xr2:uid="{DFE3E0AC-1391-4CFD-9CD7-A7A56C3F5CB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{DFE3E0AC-1391-4CFD-9CD7-A7A56C3F5CB2}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,8 @@
     <sheet name="ManageContact" sheetId="5" r:id="rId7"/>
     <sheet name="AdminUsers" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:P14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -590,7 +586,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/7rmart/src/test/resources/TestData.xlsx
+++ b/7rmart/src/test/resources/TestData.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B9A240A2-6394-4A1E-8446-9764666E7B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1481A91-E6B2-4949-92F5-65386120C062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{DFE3E0AC-1391-4CFD-9CD7-A7A56C3F5CB2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" firstSheet="2" activeTab="7" xr2:uid="{DFE3E0AC-1391-4CFD-9CD7-A7A56C3F5CB2}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -17,8 +22,7 @@
     <sheet name="ManageContact" sheetId="5" r:id="rId7"/>
     <sheet name="AdminUsers" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:P14"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,13 +100,13 @@
     <t>Heavy Rain in Kerala</t>
   </si>
   <si>
-    <t>anoojk30</t>
-  </si>
-  <si>
     <t>UserType</t>
   </si>
   <si>
     <t>Staff</t>
+  </si>
+  <si>
+    <t>anoojk301</t>
   </si>
 </sst>
 </file>
@@ -586,7 +590,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +800,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,18 +813,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
